--- a/data/mall-cloud-alibaba/mall-common_structure.xlsx
+++ b/data/mall-cloud-alibaba/mall-common_structure.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1052" uniqueCount="154">
   <si>
     <t>Class Name</t>
   </si>
@@ -363,18 +363,18 @@
     <t>serialVersionUID</t>
   </si>
   <si>
+    <t>$assertionsDisabled</t>
+  </si>
+  <si>
     <t>errorCode</t>
   </si>
   <si>
-    <t>$assertionsDisabled</t>
+    <t>pageNum</t>
   </si>
   <si>
     <t>totalPage</t>
   </si>
   <si>
-    <t>pageNum</t>
-  </si>
-  <si>
     <t>pageSize</t>
   </si>
   <si>
@@ -384,33 +384,33 @@
     <t>total</t>
   </si>
   <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
     <t>message</t>
   </si>
   <si>
-    <t>code</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
     <t>$VALUES</t>
   </si>
   <si>
+    <t>VALIDATE_FAILED</t>
+  </si>
+  <si>
+    <t>FORBIDDEN</t>
+  </si>
+  <si>
+    <t>UNAUTHORIZED</t>
+  </si>
+  <si>
     <t>FAILED</t>
   </si>
   <si>
-    <t>FORBIDDEN</t>
-  </si>
-  <si>
     <t>SUCCESS</t>
   </si>
   <si>
-    <t>VALIDATE_FAILED</t>
-  </si>
-  <si>
-    <t>UNAUTHORIZED</t>
-  </si>
-  <si>
     <t>Source Class Name</t>
   </si>
   <si>
@@ -468,6 +468,12 @@
     <t>18</t>
   </si>
   <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
     <t>3</t>
   </si>
   <si>
@@ -477,7 +483,7 @@
     <t>9</t>
   </si>
   <si>
-    <t>0</t>
+    <t>5</t>
   </si>
 </sst>
 </file>
@@ -2670,7 +2676,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C40"/>
+  <dimension ref="A1:C50"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2692,21 +2698,21 @@
         <v>4</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>143</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>134</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4">
@@ -2714,7 +2720,7 @@
         <v>27</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s" s="0">
         <v>134</v>
@@ -2722,21 +2728,21 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>148</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="C6" t="s" s="0">
         <v>149</v>
@@ -2744,10 +2750,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="C7" t="s" s="0">
         <v>150</v>
@@ -2755,35 +2761,35 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11">
@@ -2791,7 +2797,7 @@
         <v>53</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C11" t="s" s="0">
         <v>148</v>
@@ -2802,10 +2808,10 @@
         <v>53</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="13">
@@ -2813,10 +2819,10 @@
         <v>53</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="14">
@@ -2824,10 +2830,10 @@
         <v>53</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15">
@@ -2835,10 +2841,10 @@
         <v>53</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="16">
@@ -2846,10 +2852,10 @@
         <v>53</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="17">
@@ -2857,76 +2863,76 @@
         <v>53</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="C23" t="s" s="0">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="24">
@@ -2934,10 +2940,10 @@
         <v>7</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>148</v>
+        <v>135</v>
       </c>
     </row>
     <row r="25">
@@ -2945,10 +2951,10 @@
         <v>7</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="C25" t="s" s="0">
-        <v>148</v>
+        <v>153</v>
       </c>
     </row>
     <row r="26">
@@ -2956,10 +2962,10 @@
         <v>7</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C26" t="s" s="0">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="27">
@@ -2967,10 +2973,10 @@
         <v>7</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C27" t="s" s="0">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="28">
@@ -2978,10 +2984,10 @@
         <v>7</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>29</v>
+        <v>74</v>
       </c>
       <c r="C28" t="s" s="0">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="29">
@@ -2989,10 +2995,10 @@
         <v>7</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="30">
@@ -3000,10 +3006,10 @@
         <v>7</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>28</v>
+        <v>81</v>
       </c>
       <c r="C30" t="s" s="0">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="31">
@@ -3011,10 +3017,10 @@
         <v>7</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C31" t="s" s="0">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="32">
@@ -3022,10 +3028,10 @@
         <v>7</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C32" t="s" s="0">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="33">
@@ -3033,87 +3039,197 @@
         <v>7</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C33" t="s" s="0">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>86</v>
+        <v>7</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C34" t="s" s="0">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>86</v>
+        <v>7</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="C35" t="s" s="0">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>90</v>
+        <v>7</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>97</v>
+        <v>29</v>
       </c>
       <c r="C36" t="s" s="0">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>90</v>
+        <v>7</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="C37" t="s" s="0">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>90</v>
+        <v>7</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C38" t="s" s="0">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>90</v>
+        <v>7</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>28</v>
+        <v>78</v>
       </c>
       <c r="C39" t="s" s="0">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>90</v>
+        <v>7</v>
       </c>
       <c r="B40" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="C40" t="s" s="0">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B41" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="C41" t="s" s="0">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="B42" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="C42" t="s" s="0">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="B43" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="C43" t="s" s="0">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="B44" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="C44" t="s" s="0">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="B45" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="C45" t="s" s="0">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="B46" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="C46" t="s" s="0">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="B47" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="C47" t="s" s="0">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="B48" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="C48" t="s" s="0">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="B49" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="C49" t="s" s="0">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="B50" t="s" s="0">
         <v>103</v>
       </c>
-      <c r="C40" t="s" s="0">
-        <v>151</v>
+      <c r="C50" t="s" s="0">
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -3192,10 +3308,10 @@
         <v>113</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>27</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -3206,10 +3322,10 @@
         <v>114</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>35</v>
+        <v>95</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>9</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5">
@@ -3307,7 +3423,7 @@
         <v>95</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12">
@@ -3335,7 +3451,7 @@
         <v>95</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14">
@@ -3343,13 +3459,13 @@
         <v>90</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C14" t="s" s="0">
         <v>95</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>98</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15">
@@ -3357,13 +3473,13 @@
         <v>90</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>6</v>
+        <v>95</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>90</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16">
@@ -3371,7 +3487,7 @@
         <v>90</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C16" t="s" s="0">
         <v>6</v>
@@ -3385,13 +3501,13 @@
         <v>90</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>95</v>
+        <v>6</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>30</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18">
@@ -3427,13 +3543,13 @@
         <v>90</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>6</v>
+        <v>95</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>90</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21">
@@ -3441,13 +3557,13 @@
         <v>90</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>95</v>
+        <v>6</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>14</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -4087,7 +4203,7 @@
         <v>90</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E2" t="s" s="0">
         <v>135</v>
@@ -4104,7 +4220,7 @@
         <v>90</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E3" t="s" s="0">
         <v>135</v>
@@ -4121,7 +4237,7 @@
         <v>90</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E4" t="s" s="0">
         <v>134</v>
@@ -4138,7 +4254,7 @@
         <v>90</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E5" t="s" s="0">
         <v>134</v>
@@ -4155,7 +4271,7 @@
         <v>90</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E6" t="s" s="0">
         <v>134</v>
@@ -4189,7 +4305,7 @@
         <v>90</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E8" t="s" s="0">
         <v>134</v>
@@ -4206,7 +4322,7 @@
         <v>90</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E9" t="s" s="0">
         <v>134</v>
